--- a/uploads/Bid_file_success_error_newly_updated (10).xlsx
+++ b/uploads/Bid_file_success_error_newly_updated (10).xlsx
@@ -1,250 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepika\Documents\playwright-corr-web\upload\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2076922F-981E-4588-B074-482BB70F6768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!A1:AQ1048570</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!A1:AQ1048570</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
-  <si>
-    <t>Correspondent Loan Number</t>
-  </si>
-  <si>
-    <t>Income (Monthly)</t>
-  </si>
-  <si>
-    <t>Loan Purpose</t>
-  </si>
-  <si>
-    <t>Impound Type</t>
-  </si>
-  <si>
-    <t>Loan Type</t>
-  </si>
-  <si>
-    <t>Property Address</t>
-  </si>
-  <si>
-    <t>Property City</t>
-  </si>
-  <si>
-    <t>Property State</t>
-  </si>
-  <si>
-    <t>Property Zip Code</t>
-  </si>
-  <si>
-    <t>Borrower First Name</t>
-  </si>
-  <si>
-    <t>Borrower Last Name</t>
-  </si>
-  <si>
-    <t>FICO Score</t>
-  </si>
-  <si>
-    <t>Original Loan Amount</t>
-  </si>
-  <si>
-    <t>Base Loan Amount</t>
-  </si>
-  <si>
-    <t>Loan Term</t>
-  </si>
-  <si>
-    <t>Product Code</t>
-  </si>
-  <si>
-    <t>Occupancy Type</t>
-  </si>
-  <si>
-    <t>Amortization Type</t>
-  </si>
-  <si>
-    <t>Unpaid Principal Balance</t>
-  </si>
-  <si>
-    <t>Appraised Value</t>
-  </si>
-  <si>
-    <t>Sales Price</t>
-  </si>
-  <si>
-    <t>Property Indicator</t>
-  </si>
-  <si>
-    <t>Note Rate</t>
-  </si>
-  <si>
-    <t>LTV</t>
-  </si>
-  <si>
-    <t>CLTV</t>
-  </si>
-  <si>
-    <t>Property Type</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Purpose of Refinance</t>
-  </si>
-  <si>
-    <t>Cash Out Amount</t>
-  </si>
-  <si>
-    <t>Subordinate Amount</t>
-  </si>
-  <si>
-    <t>FTHB Waiver</t>
-  </si>
-  <si>
-    <t>Doc Type</t>
-  </si>
-  <si>
-    <t>Interest Only</t>
-  </si>
-  <si>
-    <t>DTI</t>
-  </si>
-  <si>
-    <t>Harp Indicator</t>
-  </si>
-  <si>
-    <t>High Balance Indicator</t>
-  </si>
-  <si>
-    <t>Underwriting System Code</t>
-  </si>
-  <si>
-    <t>Note Date</t>
-  </si>
-  <si>
-    <t>First Payment Date</t>
-  </si>
-  <si>
-    <t>Amortization Term</t>
-  </si>
-  <si>
-    <t>TPO</t>
-  </si>
-  <si>
-    <t>Appraisal Waiver</t>
-  </si>
-  <si>
-    <t>TestSigma_17-02-2026_SC1_2P_149</t>
-  </si>
-  <si>
-    <t>Refinance</t>
-  </si>
-  <si>
-    <t>Ins only</t>
-  </si>
-  <si>
-    <t>Conventional</t>
-  </si>
-  <si>
-    <t>14435 Andover Birch Drive</t>
-  </si>
-  <si>
-    <t>Rosharon</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>FN_Deepika_JULY_16_10</t>
-  </si>
-  <si>
-    <t>LN_Deepika_JULY_16_10</t>
-  </si>
-  <si>
-    <t>214_25/30 Yr Freddie Mac Fixed</t>
-  </si>
-  <si>
-    <t>Second Home</t>
-  </si>
-  <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Attached</t>
-  </si>
-  <si>
-    <t>PUD</t>
-  </si>
-  <si>
-    <t>Condo &gt;4 Stories</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Full / Alt Doc</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>LP/LPI</t>
-  </si>
-  <si>
-    <t>TestSigma_17-02-2026_SC1_PU_936</t>
-  </si>
-  <si>
-    <t>Taxes only</t>
-  </si>
-  <si>
-    <t>14436 Andover Birch Drive</t>
-  </si>
-  <si>
-    <t>FN_Deepika_JULY_16_11</t>
-  </si>
-  <si>
-    <t>LN_Deepika_JULY_16_11</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="2">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -274,7 +70,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -282,14 +78,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -614,180 +402,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="36.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>41</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Correspondent Loan Number</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Income (Monthly)</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Loan Purpose</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Impound Type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Loan Type</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Property Address</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Property City</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Property State</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Property Zip Code</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Borrower First Name</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Borrower Last Name</v>
+      </c>
+      <c r="L1" t="str">
+        <v>FICO Score</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Original Loan Amount</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Base Loan Amount</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Loan Term</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Product Code</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Occupancy Type</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Amortization Type</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Unpaid Principal Balance</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Appraised Value</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Sales Price</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Property Indicator</v>
+      </c>
+      <c r="W1" t="str">
+        <v>Note Rate</v>
+      </c>
+      <c r="X1" t="str">
+        <v>LTV</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>CLTV</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>FICO Score</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>Property Type</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>Units</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>Purpose of Refinance</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>Cash Out Amount</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>Subordinate Amount</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>FTHB Waiver</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>Doc Type</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>Interest Only</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>DTI</v>
+      </c>
+      <c r="AJ1" t="str">
+        <v>Harp Indicator</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>High Balance Indicator</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>Underwriting System Code</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>Note Date</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>First Payment Date</v>
+      </c>
+      <c r="AO1" t="str">
+        <v>Amortization Term</v>
+      </c>
+      <c r="AP1" t="str">
+        <v>TPO</v>
+      </c>
+      <c r="AQ1" t="str">
+        <v>Appraisal Waiver</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>42</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>TestSigma_25-02-2026_SC1_4L_220</v>
       </c>
       <c r="B2">
         <v>2001</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
+      <c r="C2" t="str">
+        <v>Refinance</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Ins only</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Conventional</v>
+      </c>
+      <c r="F2" t="str">
+        <v>14435 Andover Birch Drive</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Rosharon</v>
+      </c>
+      <c r="H2" t="str">
+        <v>TX</v>
       </c>
       <c r="I2">
         <v>77583</v>
       </c>
-      <c r="J2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" t="s">
-        <v>50</v>
+      <c r="J2" t="str">
+        <v>FN_Deepika_JULY_16_10</v>
+      </c>
+      <c r="K2" t="str">
+        <v>LN_Deepika_JULY_16_10</v>
       </c>
       <c r="L2">
         <v>794</v>
@@ -801,14 +585,14 @@
       <c r="O2">
         <v>360</v>
       </c>
-      <c r="P2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" t="s">
-        <v>53</v>
+      <c r="P2" t="str">
+        <v>214_25/30 Yr Freddie Mac Fixed</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>Second Home</v>
+      </c>
+      <c r="R2" t="str">
+        <v>Fixed</v>
       </c>
       <c r="S2">
         <v>318750</v>
@@ -819,8 +603,8 @@
       <c r="U2">
         <v>425000</v>
       </c>
-      <c r="V2" t="s">
-        <v>54</v>
+      <c r="V2" t="str">
+        <v>Attached</v>
       </c>
       <c r="W2">
         <v>6.5</v>
@@ -834,29 +618,29 @@
       <c r="Z2">
         <v>794</v>
       </c>
-      <c r="AA2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>56</v>
+      <c r="AA2" t="str">
+        <v>PUD</v>
+      </c>
+      <c r="AB2" t="str">
+        <v>Condo &gt;4 Stories</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
-      <c r="AF2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>59</v>
+      <c r="AF2" t="str">
+        <v>Y</v>
+      </c>
+      <c r="AG2" t="str">
+        <v>Full / Alt Doc</v>
+      </c>
+      <c r="AH2" t="str">
+        <v>N</v>
       </c>
       <c r="AI2">
         <v>50</v>
       </c>
-      <c r="AL2" t="s">
-        <v>60</v>
+      <c r="AL2" t="str">
+        <v>LP/LPI</v>
       </c>
       <c r="AM2">
         <v>44886</v>
@@ -869,39 +653,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>61</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>TestSigma_25-02-2026_SC1_ZN_104</v>
       </c>
       <c r="B3">
         <v>2001</v>
       </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
+      <c r="C3" t="str">
+        <v>Refinance</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Taxes only</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Conventional</v>
+      </c>
+      <c r="F3" t="str">
+        <v>14436 Andover Birch Drive</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Rosharon</v>
+      </c>
+      <c r="H3" t="str">
+        <v>TX</v>
       </c>
       <c r="I3">
         <v>77583</v>
       </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>65</v>
+      <c r="J3" t="str">
+        <v>FN_Deepika_JULY_16_11</v>
+      </c>
+      <c r="K3" t="str">
+        <v>LN_Deepika_JULY_16_11</v>
       </c>
       <c r="L3">
         <v>794</v>
@@ -915,14 +699,14 @@
       <c r="O3">
         <v>360</v>
       </c>
-      <c r="P3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" t="s">
-        <v>53</v>
+      <c r="P3" t="str">
+        <v>214_25/30 Yr Freddie Mac Fixed</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>Second Home</v>
+      </c>
+      <c r="R3" t="str">
+        <v>Fixed</v>
       </c>
       <c r="S3">
         <v>318750</v>
@@ -933,8 +717,8 @@
       <c r="U3">
         <v>425000</v>
       </c>
-      <c r="V3" t="s">
-        <v>54</v>
+      <c r="V3" t="str">
+        <v>Attached</v>
       </c>
       <c r="W3">
         <v>6.5</v>
@@ -948,29 +732,29 @@
       <c r="Z3">
         <v>794</v>
       </c>
-      <c r="AA3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>56</v>
+      <c r="AA3" t="str">
+        <v>PUD</v>
+      </c>
+      <c r="AB3" t="str">
+        <v>Condo &gt;4 Stories</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
-      <c r="AF3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>59</v>
+      <c r="AF3" t="str">
+        <v>Y</v>
+      </c>
+      <c r="AG3" t="str">
+        <v>Full / Alt Doc</v>
+      </c>
+      <c r="AH3" t="str">
+        <v>N</v>
       </c>
       <c r="AI3">
         <v>50</v>
       </c>
-      <c r="AL3" t="s">
-        <v>60</v>
+      <c r="AL3" t="str">
+        <v>LP/LPI</v>
       </c>
       <c r="AM3">
         <v>44886</v>
@@ -984,25 +768,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ1048570" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ1048570"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AQ3" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AQ3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <ignoredErrors>
-    <ignoredError sqref="A1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/uploads/Bid_file_success_error_newly_updated (10).xlsx
+++ b/uploads/Bid_file_success_error_newly_updated (10).xlsx
@@ -541,7 +541,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>TestSigma_25-02-2026_SC1_4L_220</v>
+        <v>TestSigma_26-02-2026_SC1_2L_621</v>
       </c>
       <c r="B2">
         <v>2001</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>TestSigma_25-02-2026_SC1_ZN_104</v>
+        <v>TestSigma_26-02-2026_SC1_SI_274</v>
       </c>
       <c r="B3">
         <v>2001</v>
